--- a/Docs/Book1.xlsx
+++ b/Docs/Book1.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tasks Pending" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -457,10 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,6 +522,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -541,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
